--- a/Exhibits/Add Exhibit Rep to an Exhibit Contract/Main.rvl.xlsx
+++ b/Exhibits/Add Exhibit Rep to an Exhibit Contract/Main.rvl.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="161">
   <si>
     <t>Flow</t>
   </si>
@@ -436,6 +436,66 @@
   </si>
   <si>
     <t>Rep</t>
+  </si>
+  <si>
+    <t>C:\UX365RegressionTest\Exhibits</t>
+  </si>
+  <si>
+    <t>C:\UX365RegressionTest\Exhibits\ExhibitData.xlsx</t>
+  </si>
+  <si>
+    <t>DoLoadObjects</t>
+  </si>
+  <si>
+    <t>objectsFilePath</t>
+  </si>
+  <si>
+    <t>C:\UX365RegressionTest\Objects.js</t>
+  </si>
+  <si>
+    <t>***Test opens the Exhibit Contract and adds a Booth identified in the ExhibitData spreadsheet.</t>
+  </si>
+  <si>
+    <t>****Value for g_testname must be defined to determine row in the spreadsheet for values and objects.</t>
+  </si>
+  <si>
+    <t>*****Test must already be in an invoice that contains an Exhibit Contract with batch selected.</t>
+  </si>
+  <si>
+    <t>***Test opens the Exhibit Contract and adds a Rep identified in the ExhibitData spreadsheet.</t>
+  </si>
+  <si>
+    <t>*****Test must already be in an invoice that contains an Exhibit Contract with batch selected. A Booth should be added to the contract prior to running this test.</t>
+  </si>
+  <si>
+    <t>Loop through spreadsheet to find row with match on Test Name.</t>
+  </si>
+  <si>
+    <t>Test Name:</t>
+  </si>
+  <si>
+    <t>Add Exhibit Booth.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exhibit Booth Product: </t>
+  </si>
+  <si>
+    <t>Add New Rep.</t>
+  </si>
+  <si>
+    <t>Validate Badges Allowed in Exhibit Contract are updated.</t>
+  </si>
+  <si>
+    <t>Validate Invoice Detail created for Rep.</t>
+  </si>
+  <si>
+    <t>Test is looping through the values in the ExhibitData spreadsheet to validate that the Exhibit Booth was generated correctly.</t>
+  </si>
+  <si>
+    <t>Test is looping through the values in the Rep were generated correctly.</t>
   </si>
 </sst>
 </file>
@@ -456,7 +516,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="292">
+  <borders count="313">
     <border>
       <left/>
       <right/>
@@ -755,11 +815,32 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="292">
+  <cellXfs count="313">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0"/>
@@ -1052,6 +1133,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="289" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="290" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="291" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="292" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="293" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="294" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="295" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="296" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="297" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="298" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="299" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="300" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="301" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="302" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="303" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="304" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="305" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="306" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="307" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="308" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="309" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="310" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="311" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="312" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1061,7 +1163,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H150"/>
+  <dimension ref="A1:H161"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5.5546875" customWidth="true"/>
@@ -1207,7 +1309,7 @@
         <v>13</v>
       </c>
       <c r="G12" t="s">
-        <v>23</v>
+        <v>142</v>
       </c>
       <c r="H12" t="s">
         <v>24</v>
@@ -1316,7 +1418,7 @@
         <v>13</v>
       </c>
       <c r="G20" t="s">
-        <v>23</v>
+        <v>142</v>
       </c>
     </row>
     <row r="21">
@@ -1403,736 +1505,730 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="9"/>
-      <c r="B27" s="10"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="15"/>
-      <c r="H27" s="16"/>
+      <c r="A27" s="301"/>
     </row>
     <row r="28">
-      <c r="A28" s="209" t="s">
+      <c r="A28" s="300"/>
+      <c r="B28" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" t="s">
+        <v>143</v>
+      </c>
+      <c r="E28" t="s">
+        <v>144</v>
+      </c>
+      <c r="F28" t="s">
+        <v>13</v>
+      </c>
+      <c r="G28" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="299" t="s">
         <v>41</v>
       </c>
-      <c r="B28" t="s">
-        <v>3</v>
-      </c>
-      <c r="C28" t="s">
+      <c r="B29" t="s">
+        <v>3</v>
+      </c>
+      <c r="C29" t="s">
         <v>42</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D29" t="s">
         <v>43</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E29" t="s">
         <v>44</v>
       </c>
-      <c r="F28" t="s">
+      <c r="F29" t="s">
         <v>45</v>
       </c>
-      <c r="G28" t="s">
+      <c r="G29" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="208"/>
-      <c r="B29" t="s">
-        <v>3</v>
-      </c>
-      <c r="C29" t="s">
+    <row r="30">
+      <c r="A30" s="298"/>
+      <c r="B30" t="s">
+        <v>3</v>
+      </c>
+      <c r="C30" t="s">
         <v>9</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D30" t="s">
         <v>46</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E30" t="s">
         <v>47</v>
       </c>
-      <c r="F29" t="s">
+      <c r="F30" t="s">
         <v>48</v>
       </c>
-      <c r="G29" t="s">
+      <c r="G30" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="207"/>
-    </row>
     <row r="31">
-      <c r="A31" s="206" t="s">
+      <c r="A31" s="297"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="296"/>
+      <c r="B32" t="s">
+        <v>3</v>
+      </c>
+      <c r="C32" t="s">
+        <v>65</v>
+      </c>
+      <c r="D32" t="s">
+        <v>66</v>
+      </c>
+      <c r="E32" t="s">
+        <v>67</v>
+      </c>
+      <c r="F32" t="s">
+        <v>13</v>
+      </c>
+      <c r="G32" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="295"/>
+      <c r="B33" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" t="s">
+        <v>65</v>
+      </c>
+      <c r="D33" t="s">
+        <v>66</v>
+      </c>
+      <c r="E33" t="s">
+        <v>67</v>
+      </c>
+      <c r="F33" t="s">
+        <v>13</v>
+      </c>
+      <c r="G33" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="294"/>
+      <c r="B34" t="s">
+        <v>3</v>
+      </c>
+      <c r="C34" t="s">
+        <v>65</v>
+      </c>
+      <c r="D34" t="s">
+        <v>66</v>
+      </c>
+      <c r="E34" t="s">
+        <v>67</v>
+      </c>
+      <c r="F34" t="s">
+        <v>13</v>
+      </c>
+      <c r="G34" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="293"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="207"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="206" t="s">
         <v>41</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B37" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" s="205" t="s">
+    <row r="38">
+      <c r="A38" s="304"/>
+      <c r="B38" t="s">
+        <v>3</v>
+      </c>
+      <c r="C38" t="s">
+        <v>65</v>
+      </c>
+      <c r="D38" t="s">
+        <v>66</v>
+      </c>
+      <c r="E38" t="s">
+        <v>67</v>
+      </c>
+      <c r="F38" t="s">
+        <v>13</v>
+      </c>
+      <c r="G38" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="303"/>
+      <c r="B39" t="s">
+        <v>3</v>
+      </c>
+      <c r="C39" t="s">
+        <v>65</v>
+      </c>
+      <c r="D39" t="s">
+        <v>66</v>
+      </c>
+      <c r="E39" t="s">
+        <v>67</v>
+      </c>
+      <c r="F39" t="s">
+        <v>13</v>
+      </c>
+      <c r="G39" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="302"/>
+      <c r="B40" t="s">
+        <v>11</v>
+      </c>
+      <c r="E40" t="s">
+        <v>67</v>
+      </c>
+      <c r="F40" t="s">
+        <v>45</v>
+      </c>
+      <c r="G40" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="205" t="s">
         <v>51</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B41" t="s">
         <v>19</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C41" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" s="204" t="s">
+    <row r="42">
+      <c r="A42" s="204" t="s">
         <v>41</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B42" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" s="203" t="s">
+    <row r="43">
+      <c r="A43" s="203" t="s">
         <v>53</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B43" t="s">
         <v>11</v>
       </c>
-      <c r="E34" t="s">
+      <c r="E43" t="s">
         <v>54</v>
       </c>
-      <c r="F34" t="s">
+      <c r="F43" t="s">
         <v>21</v>
       </c>
-      <c r="G34" t="s">
+      <c r="G43" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" s="202"/>
-      <c r="B35" t="s">
+    <row r="44">
+      <c r="A44" s="202"/>
+      <c r="B44" t="s">
         <v>56</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D44" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" s="201"/>
-      <c r="B36" t="s">
-        <v>11</v>
-      </c>
-      <c r="E36" t="s">
-        <v>58</v>
-      </c>
-      <c r="F36" t="s">
-        <v>45</v>
-      </c>
-      <c r="G36" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="200"/>
-      <c r="B37" t="s">
-        <v>3</v>
-      </c>
-      <c r="C37" t="s">
-        <v>21</v>
-      </c>
-      <c r="D37" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="199"/>
-      <c r="B38" t="s">
-        <v>8</v>
-      </c>
-      <c r="E38" t="s">
-        <v>60</v>
-      </c>
-      <c r="F38" t="s">
-        <v>45</v>
-      </c>
-      <c r="G38" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="198" t="s">
-        <v>34</v>
-      </c>
-      <c r="B39" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="197" t="s">
-        <v>34</v>
-      </c>
-      <c r="B40" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="196"/>
-    </row>
-    <row r="42">
-      <c r="A42" s="195" t="s">
-        <v>41</v>
-      </c>
-      <c r="B42" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="194" t="s">
-        <v>51</v>
-      </c>
-      <c r="B43" t="s">
-        <v>19</v>
-      </c>
-      <c r="C43" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="193" t="s">
-        <v>41</v>
-      </c>
-      <c r="B44" t="s">
-        <v>52</v>
-      </c>
-    </row>
     <row r="45">
-      <c r="A45" s="192" t="s">
-        <v>53</v>
-      </c>
+      <c r="A45" s="201"/>
       <c r="B45" t="s">
         <v>11</v>
       </c>
       <c r="E45" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="F45" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="G45" t="s">
-        <v>55</v>
+        <v>15</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="191"/>
+      <c r="A46" s="200"/>
       <c r="B46" t="s">
-        <v>56</v>
+        <v>3</v>
+      </c>
+      <c r="C46" t="s">
+        <v>21</v>
       </c>
       <c r="D46" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="190"/>
+      <c r="A47" s="199"/>
       <c r="B47" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E47" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F47" t="s">
         <v>45</v>
       </c>
       <c r="G47" t="s">
-        <v>15</v>
+        <v>61</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="189"/>
+      <c r="A48" s="198" t="s">
+        <v>34</v>
+      </c>
       <c r="B48" t="s">
-        <v>3</v>
-      </c>
-      <c r="C48" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="197" t="s">
+        <v>34</v>
+      </c>
+      <c r="B49" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="196"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="195" t="s">
+        <v>41</v>
+      </c>
+      <c r="B51" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="194" t="s">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>19</v>
+      </c>
+      <c r="C52" t="s">
         <v>36</v>
       </c>
-      <c r="D48" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="188"/>
-      <c r="B49" t="s">
-        <v>8</v>
-      </c>
-      <c r="E49" t="s">
-        <v>64</v>
-      </c>
-      <c r="F49" t="s">
-        <v>45</v>
-      </c>
-      <c r="G49" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="187" t="s">
-        <v>34</v>
-      </c>
-      <c r="B50" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="186" t="s">
-        <v>34</v>
-      </c>
-      <c r="B51" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="17"/>
-      <c r="B52" s="18"/>
-      <c r="C52" s="19"/>
-      <c r="D52" s="20"/>
-      <c r="E52" s="21"/>
-      <c r="F52" s="22"/>
-      <c r="G52" s="23"/>
-      <c r="H52" s="24"/>
     </row>
     <row r="53">
-      <c r="A53" s="233"/>
+      <c r="A53" s="193" t="s">
+        <v>41</v>
+      </c>
       <c r="B53" t="s">
-        <v>3</v>
-      </c>
-      <c r="C53" t="s">
-        <v>65</v>
-      </c>
-      <c r="D53" t="s">
-        <v>66</v>
-      </c>
-      <c r="E53" t="s">
-        <v>67</v>
-      </c>
-      <c r="F53" t="s">
-        <v>13</v>
-      </c>
-      <c r="G53" t="s">
-        <v>17</v>
+        <v>52</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="232"/>
+      <c r="A54" s="192" t="s">
+        <v>53</v>
+      </c>
       <c r="B54" t="s">
         <v>11</v>
       </c>
       <c r="E54" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="F54" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="G54" t="s">
-        <v>17</v>
+        <v>55</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="231"/>
+      <c r="A55" s="191"/>
       <c r="B55" t="s">
-        <v>3</v>
-      </c>
-      <c r="C55" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="D55" t="s">
-        <v>66</v>
-      </c>
-      <c r="E55" t="s">
-        <v>67</v>
-      </c>
-      <c r="F55" t="s">
-        <v>13</v>
-      </c>
-      <c r="G55" t="s">
-        <v>18</v>
+        <v>57</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="230"/>
+      <c r="A56" s="190"/>
       <c r="B56" t="s">
         <v>11</v>
       </c>
       <c r="E56" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="F56" t="s">
         <v>45</v>
       </c>
       <c r="G56" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="229"/>
+      <c r="A57" s="189"/>
+      <c r="B57" t="s">
+        <v>3</v>
+      </c>
+      <c r="C57" t="s">
+        <v>36</v>
+      </c>
+      <c r="D57" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="58">
-      <c r="A58" s="228"/>
+      <c r="A58" s="188"/>
+      <c r="B58" t="s">
+        <v>8</v>
+      </c>
+      <c r="E58" t="s">
+        <v>64</v>
+      </c>
+      <c r="F58" t="s">
+        <v>45</v>
+      </c>
+      <c r="G58" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="59">
-      <c r="A59" s="227" t="s">
-        <v>41</v>
+      <c r="A59" s="187" t="s">
+        <v>34</v>
       </c>
       <c r="B59" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="226"/>
+      <c r="A60" s="186" t="s">
+        <v>34</v>
+      </c>
       <c r="B60" t="s">
-        <v>3</v>
-      </c>
-      <c r="C60" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="17"/>
+      <c r="B61" s="18"/>
+      <c r="C61" s="19"/>
+      <c r="D61" s="20"/>
+      <c r="E61" s="21"/>
+      <c r="F61" s="22"/>
+      <c r="G61" s="23"/>
+      <c r="H61" s="24"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="233"/>
+      <c r="B62" t="s">
+        <v>3</v>
+      </c>
+      <c r="C62" t="s">
         <v>65</v>
       </c>
-      <c r="D60" t="s">
+      <c r="D62" t="s">
         <v>66</v>
       </c>
-      <c r="E60" t="s">
+      <c r="E62" t="s">
         <v>67</v>
       </c>
-      <c r="F60" t="s">
-        <v>13</v>
-      </c>
-      <c r="G60" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="225"/>
-      <c r="B61" t="s">
-        <v>3</v>
-      </c>
-      <c r="C61" t="s">
-        <v>21</v>
-      </c>
-      <c r="D61" t="s">
-        <v>70</v>
-      </c>
-      <c r="E61" t="s">
-        <v>71</v>
-      </c>
-      <c r="F61" t="s">
-        <v>45</v>
-      </c>
-      <c r="G61" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="224"/>
-      <c r="B62" t="s">
-        <v>3</v>
-      </c>
-      <c r="C62" t="s">
-        <v>36</v>
-      </c>
-      <c r="D62" t="s">
-        <v>70</v>
-      </c>
-      <c r="E62" t="s">
-        <v>71</v>
-      </c>
       <c r="F62" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="G62" t="s">
-        <v>64</v>
+        <v>17</v>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="223"/>
+      <c r="A63" s="232"/>
       <c r="B63" t="s">
-        <v>3</v>
-      </c>
-      <c r="C63" t="s">
-        <v>65</v>
-      </c>
-      <c r="D63" t="s">
-        <v>66</v>
+        <v>11</v>
       </c>
       <c r="E63" t="s">
         <v>67</v>
       </c>
       <c r="F63" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="G63" t="s">
-        <v>72</v>
+        <v>17</v>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="222"/>
+      <c r="A64" s="231"/>
       <c r="B64" t="s">
-        <v>11</v>
+        <v>3</v>
+      </c>
+      <c r="C64" t="s">
+        <v>65</v>
+      </c>
+      <c r="D64" t="s">
+        <v>66</v>
       </c>
       <c r="E64" t="s">
         <v>67</v>
       </c>
       <c r="F64" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="G64" t="s">
-        <v>64</v>
+        <v>18</v>
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="221"/>
+      <c r="A65" s="230"/>
       <c r="B65" t="s">
-        <v>3</v>
-      </c>
-      <c r="C65" t="s">
-        <v>65</v>
-      </c>
-      <c r="D65" t="s">
-        <v>66</v>
+        <v>11</v>
       </c>
       <c r="E65" t="s">
         <v>67</v>
       </c>
       <c r="F65" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="G65" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="229"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="228"/>
+    </row>
+    <row r="68">
+      <c r="A68" s="227" t="s">
+        <v>41</v>
+      </c>
+      <c r="B68" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="226"/>
+      <c r="B69" t="s">
+        <v>3</v>
+      </c>
+      <c r="C69" t="s">
+        <v>65</v>
+      </c>
+      <c r="D69" t="s">
+        <v>66</v>
+      </c>
+      <c r="E69" t="s">
+        <v>67</v>
+      </c>
+      <c r="F69" t="s">
+        <v>13</v>
+      </c>
+      <c r="G69" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="225"/>
+      <c r="B70" t="s">
+        <v>3</v>
+      </c>
+      <c r="C70" t="s">
+        <v>21</v>
+      </c>
+      <c r="D70" t="s">
+        <v>70</v>
+      </c>
+      <c r="E70" t="s">
+        <v>71</v>
+      </c>
+      <c r="F70" t="s">
+        <v>45</v>
+      </c>
+      <c r="G70" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="224"/>
+      <c r="B71" t="s">
+        <v>3</v>
+      </c>
+      <c r="C71" t="s">
+        <v>36</v>
+      </c>
+      <c r="D71" t="s">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>71</v>
+      </c>
+      <c r="F71" t="s">
+        <v>45</v>
+      </c>
+      <c r="G71" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="223"/>
+      <c r="B72" t="s">
+        <v>3</v>
+      </c>
+      <c r="C72" t="s">
+        <v>65</v>
+      </c>
+      <c r="D72" t="s">
+        <v>66</v>
+      </c>
+      <c r="E72" t="s">
+        <v>67</v>
+      </c>
+      <c r="F72" t="s">
+        <v>13</v>
+      </c>
+      <c r="G72" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="222"/>
+      <c r="B73" t="s">
+        <v>11</v>
+      </c>
+      <c r="E73" t="s">
+        <v>67</v>
+      </c>
+      <c r="F73" t="s">
+        <v>45</v>
+      </c>
+      <c r="G73" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="221"/>
+      <c r="B74" t="s">
+        <v>3</v>
+      </c>
+      <c r="C74" t="s">
+        <v>65</v>
+      </c>
+      <c r="D74" t="s">
+        <v>66</v>
+      </c>
+      <c r="E74" t="s">
+        <v>67</v>
+      </c>
+      <c r="F74" t="s">
+        <v>13</v>
+      </c>
+      <c r="G74" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="66">
-      <c r="A66" s="220"/>
-      <c r="B66" t="s">
-        <v>11</v>
-      </c>
-      <c r="E66" t="s">
-        <v>67</v>
-      </c>
-      <c r="F66" t="s">
-        <v>45</v>
-      </c>
-      <c r="G66" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="219"/>
-    </row>
-    <row r="68">
-      <c r="A68" s="218" t="s">
-        <v>41</v>
-      </c>
-      <c r="B68" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="217"/>
-      <c r="B69" t="s">
-        <v>3</v>
-      </c>
-      <c r="C69" t="s">
-        <v>75</v>
-      </c>
-      <c r="D69" t="s">
-        <v>76</v>
-      </c>
-      <c r="E69" t="s">
-        <v>77</v>
-      </c>
-      <c r="F69" t="s">
-        <v>13</v>
-      </c>
-      <c r="G69" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="216"/>
-      <c r="B70" t="s">
-        <v>11</v>
-      </c>
-      <c r="E70" t="s">
-        <v>25</v>
-      </c>
-      <c r="F70" t="s">
-        <v>13</v>
-      </c>
-      <c r="G70" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="215"/>
-      <c r="B71" t="s">
-        <v>11</v>
-      </c>
-      <c r="E71" t="s">
-        <v>78</v>
-      </c>
-      <c r="F71" t="s">
-        <v>13</v>
-      </c>
-      <c r="G71" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="214" t="s">
-        <v>41</v>
-      </c>
-      <c r="B72" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="213"/>
-      <c r="B73" t="s">
-        <v>3</v>
-      </c>
-      <c r="C73" t="s">
-        <v>75</v>
-      </c>
-      <c r="D73" t="s">
-        <v>76</v>
-      </c>
-      <c r="E73" t="s">
-        <v>77</v>
-      </c>
-      <c r="F73" t="s">
-        <v>13</v>
-      </c>
-      <c r="G73" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="212"/>
-      <c r="B74" t="s">
-        <v>11</v>
-      </c>
-      <c r="E74" t="s">
-        <v>25</v>
-      </c>
-      <c r="F74" t="s">
-        <v>13</v>
-      </c>
-      <c r="G74" t="s">
-        <v>39</v>
-      </c>
-    </row>
     <row r="75">
-      <c r="A75" s="211"/>
+      <c r="A75" s="220"/>
       <c r="B75" t="s">
         <v>11</v>
       </c>
       <c r="E75" t="s">
+        <v>67</v>
+      </c>
+      <c r="F75" t="s">
+        <v>45</v>
+      </c>
+      <c r="G75" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="219"/>
+    </row>
+    <row r="77">
+      <c r="A77" s="218" t="s">
+        <v>41</v>
+      </c>
+      <c r="B77" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="217"/>
+      <c r="B78" t="s">
+        <v>3</v>
+      </c>
+      <c r="C78" t="s">
+        <v>75</v>
+      </c>
+      <c r="D78" t="s">
+        <v>76</v>
+      </c>
+      <c r="E78" t="s">
+        <v>77</v>
+      </c>
+      <c r="F78" t="s">
+        <v>13</v>
+      </c>
+      <c r="G78" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="216"/>
+      <c r="B79" t="s">
+        <v>11</v>
+      </c>
+      <c r="E79" t="s">
+        <v>25</v>
+      </c>
+      <c r="F79" t="s">
+        <v>13</v>
+      </c>
+      <c r="G79" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="215"/>
+      <c r="B80" t="s">
+        <v>11</v>
+      </c>
+      <c r="E80" t="s">
         <v>78</v>
       </c>
-      <c r="F75" t="s">
-        <v>13</v>
-      </c>
-      <c r="G75" t="s">
+      <c r="F80" t="s">
+        <v>13</v>
+      </c>
+      <c r="G80" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="76">
-      <c r="A76" s="210"/>
-    </row>
-    <row r="77">
-      <c r="A77" s="253" t="s">
+    <row r="81">
+      <c r="A81" s="214" t="s">
         <v>41</v>
       </c>
-      <c r="B77" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="252"/>
-      <c r="B78" t="s">
-        <v>3</v>
-      </c>
-      <c r="C78" t="s">
-        <v>65</v>
-      </c>
-      <c r="D78" t="s">
-        <v>66</v>
-      </c>
-      <c r="E78" t="s">
-        <v>67</v>
-      </c>
-      <c r="F78" t="s">
-        <v>13</v>
-      </c>
-      <c r="G78" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="251"/>
-      <c r="B79" t="s">
-        <v>3</v>
-      </c>
-      <c r="C79" t="s">
-        <v>75</v>
-      </c>
-      <c r="D79" t="s">
-        <v>83</v>
-      </c>
-      <c r="E79" t="s">
-        <v>84</v>
-      </c>
-      <c r="F79" t="s">
-        <v>13</v>
-      </c>
-      <c r="G79" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="250"/>
-      <c r="B80" t="s">
-        <v>3</v>
-      </c>
-      <c r="C80" t="s">
-        <v>9</v>
-      </c>
-      <c r="D80" t="s">
-        <v>46</v>
-      </c>
-      <c r="E80" t="s">
-        <v>47</v>
-      </c>
-      <c r="F80" t="s">
-        <v>48</v>
-      </c>
-      <c r="G80" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="249"/>
       <c r="B81" t="s">
-        <v>3</v>
-      </c>
-      <c r="C81" t="s">
-        <v>75</v>
-      </c>
-      <c r="D81" t="s">
-        <v>87</v>
-      </c>
-      <c r="E81" t="s">
-        <v>88</v>
-      </c>
-      <c r="F81" t="s">
-        <v>13</v>
-      </c>
-      <c r="G81" t="s">
-        <v>109</v>
+        <v>74</v>
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="248"/>
+      <c r="A82" s="213"/>
       <c r="B82" t="s">
         <v>3</v>
       </c>
@@ -2140,119 +2236,82 @@
         <v>75</v>
       </c>
       <c r="D82" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="E82" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="F82" t="s">
         <v>13</v>
       </c>
       <c r="G82" t="s">
-        <v>110</v>
+        <v>142</v>
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="247"/>
+      <c r="A83" s="212"/>
       <c r="B83" t="s">
-        <v>3</v>
-      </c>
-      <c r="C83" t="s">
-        <v>75</v>
-      </c>
-      <c r="D83" t="s">
-        <v>93</v>
+        <v>11</v>
       </c>
       <c r="E83" t="s">
-        <v>91</v>
+        <v>25</v>
       </c>
       <c r="F83" t="s">
         <v>13</v>
       </c>
       <c r="G83" t="s">
-        <v>110</v>
+        <v>39</v>
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="246"/>
+      <c r="A84" s="211"/>
       <c r="B84" t="s">
-        <v>3</v>
-      </c>
-      <c r="C84" t="s">
-        <v>9</v>
-      </c>
-      <c r="D84" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="E84" t="s">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="F84" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="G84" t="s">
-        <v>111</v>
+        <v>80</v>
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="245"/>
-      <c r="B85" t="s">
-        <v>3</v>
-      </c>
-      <c r="C85" t="s">
-        <v>112</v>
-      </c>
-      <c r="D85" t="s">
-        <v>113</v>
-      </c>
-      <c r="E85" t="s">
-        <v>7</v>
-      </c>
-      <c r="F85" t="s">
-        <v>7</v>
-      </c>
-      <c r="G85" t="s">
-        <v>7</v>
-      </c>
+      <c r="A85" s="210"/>
     </row>
     <row r="86">
-      <c r="A86" s="264"/>
+      <c r="A86" s="253" t="s">
+        <v>41</v>
+      </c>
       <c r="B86" t="s">
-        <v>3</v>
-      </c>
-      <c r="C86" t="s">
-        <v>75</v>
-      </c>
-      <c r="D86" t="s">
-        <v>122</v>
-      </c>
-      <c r="E86" t="s">
-        <v>96</v>
-      </c>
-      <c r="F86" t="s">
-        <v>48</v>
-      </c>
-      <c r="G86" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="265"/>
+      <c r="A87" s="252"/>
       <c r="B87" t="s">
-        <v>11</v>
+        <v>3</v>
+      </c>
+      <c r="C87" t="s">
+        <v>65</v>
+      </c>
+      <c r="D87" t="s">
+        <v>66</v>
       </c>
       <c r="E87" t="s">
-        <v>97</v>
+        <v>67</v>
       </c>
       <c r="F87" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G87" t="s">
-        <v>121</v>
+        <v>82</v>
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="243"/>
+      <c r="A88" s="251"/>
       <c r="B88" t="s">
         <v>3</v>
       </c>
@@ -2260,31 +2319,62 @@
         <v>75</v>
       </c>
       <c r="D88" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="E88" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="F88" t="s">
         <v>13</v>
       </c>
       <c r="G88" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="242"/>
+      <c r="A89" s="250"/>
+      <c r="B89" t="s">
+        <v>3</v>
+      </c>
+      <c r="C89" t="s">
+        <v>9</v>
+      </c>
+      <c r="D89" t="s">
+        <v>46</v>
+      </c>
+      <c r="E89" t="s">
+        <v>47</v>
+      </c>
+      <c r="F89" t="s">
+        <v>48</v>
+      </c>
+      <c r="G89" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="90">
-      <c r="A90" s="241" t="s">
-        <v>41</v>
-      </c>
+      <c r="A90" s="249"/>
       <c r="B90" t="s">
-        <v>115</v>
+        <v>3</v>
+      </c>
+      <c r="C90" t="s">
+        <v>75</v>
+      </c>
+      <c r="D90" t="s">
+        <v>87</v>
+      </c>
+      <c r="E90" t="s">
+        <v>88</v>
+      </c>
+      <c r="F90" t="s">
+        <v>13</v>
+      </c>
+      <c r="G90" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="91">
-      <c r="A91" s="240"/>
+      <c r="A91" s="307"/>
       <c r="B91" t="s">
         <v>3</v>
       </c>
@@ -2301,11 +2391,14 @@
         <v>13</v>
       </c>
       <c r="G91" t="s">
-        <v>99</v>
+        <v>156</v>
+      </c>
+      <c r="H91" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="239"/>
+      <c r="A92" s="248"/>
       <c r="B92" t="s">
         <v>3</v>
       </c>
@@ -2322,11 +2415,11 @@
         <v>13</v>
       </c>
       <c r="G92" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="238"/>
+      <c r="A93" s="247"/>
       <c r="B93" t="s">
         <v>3</v>
       </c>
@@ -2334,7 +2427,7 @@
         <v>75</v>
       </c>
       <c r="D93" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="E93" t="s">
         <v>91</v>
@@ -2343,143 +2436,142 @@
         <v>13</v>
       </c>
       <c r="G93" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="237"/>
+      <c r="A94" s="246"/>
       <c r="B94" t="s">
         <v>3</v>
       </c>
       <c r="C94" t="s">
-        <v>75</v>
+        <v>9</v>
       </c>
       <c r="D94" t="s">
-        <v>103</v>
+        <v>46</v>
       </c>
       <c r="E94" t="s">
-        <v>96</v>
+        <v>47</v>
       </c>
       <c r="F94" t="s">
         <v>48</v>
       </c>
       <c r="G94" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="236"/>
+      <c r="A95" s="245"/>
       <c r="B95" t="s">
+        <v>3</v>
+      </c>
+      <c r="C95" t="s">
+        <v>112</v>
+      </c>
+      <c r="D95" t="s">
+        <v>113</v>
+      </c>
+      <c r="E95" t="s">
+        <v>7</v>
+      </c>
+      <c r="F95" t="s">
+        <v>7</v>
+      </c>
+      <c r="G95" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="264"/>
+      <c r="B96" t="s">
+        <v>3</v>
+      </c>
+      <c r="C96" t="s">
+        <v>75</v>
+      </c>
+      <c r="D96" t="s">
+        <v>122</v>
+      </c>
+      <c r="E96" t="s">
+        <v>96</v>
+      </c>
+      <c r="F96" t="s">
+        <v>48</v>
+      </c>
+      <c r="G96" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="265"/>
+      <c r="B97" t="s">
         <v>11</v>
       </c>
-      <c r="E95" t="s">
-        <v>105</v>
-      </c>
-      <c r="F95" t="s">
-        <v>13</v>
-      </c>
-      <c r="G95" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" s="235"/>
-      <c r="B96" t="s">
-        <v>11</v>
-      </c>
-      <c r="E96" t="s">
-        <v>107</v>
-      </c>
-      <c r="F96" t="s">
+      <c r="E97" t="s">
+        <v>97</v>
+      </c>
+      <c r="F97" t="s">
         <v>21</v>
       </c>
-      <c r="G96" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" s="234"/>
-      <c r="B97" t="s">
-        <v>3</v>
-      </c>
-      <c r="C97" t="s">
+      <c r="G97" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="243"/>
+      <c r="B98" t="s">
+        <v>3</v>
+      </c>
+      <c r="C98" t="s">
         <v>75</v>
       </c>
-      <c r="D97" t="s">
+      <c r="D98" t="s">
         <v>93</v>
       </c>
-      <c r="E97" t="s">
+      <c r="E98" t="s">
         <v>91</v>
       </c>
-      <c r="F97" t="s">
-        <v>13</v>
-      </c>
-      <c r="G97" t="s">
+      <c r="F98" t="s">
+        <v>13</v>
+      </c>
+      <c r="G98" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="98">
-      <c r="A98" s="25"/>
-      <c r="B98" s="26"/>
-      <c r="C98" s="27"/>
-      <c r="D98" s="28"/>
-      <c r="E98" s="29"/>
-      <c r="F98" s="30"/>
-      <c r="G98" s="31"/>
-      <c r="H98" s="32"/>
-    </row>
     <row r="99">
-      <c r="A99" s="263" t="s">
+      <c r="A99" s="242"/>
+    </row>
+    <row r="100">
+      <c r="A100" s="241" t="s">
         <v>41</v>
       </c>
-      <c r="B99" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" s="262"/>
       <c r="B100" t="s">
-        <v>3</v>
-      </c>
-      <c r="C100" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="240"/>
+      <c r="B101" t="s">
+        <v>3</v>
+      </c>
+      <c r="C101" t="s">
         <v>65</v>
       </c>
-      <c r="D100" t="s">
+      <c r="D101" t="s">
         <v>66</v>
       </c>
-      <c r="E100" t="s">
+      <c r="E101" t="s">
         <v>67</v>
       </c>
-      <c r="F100" t="s">
-        <v>13</v>
-      </c>
-      <c r="G100" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" s="261"/>
-      <c r="B101" t="s">
-        <v>3</v>
-      </c>
-      <c r="C101" t="s">
-        <v>9</v>
-      </c>
-      <c r="D101" t="s">
-        <v>46</v>
-      </c>
-      <c r="E101" t="s">
-        <v>47</v>
-      </c>
       <c r="F101" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="G101" t="s">
-        <v>119</v>
+        <v>157</v>
       </c>
     </row>
     <row r="102">
-      <c r="A102" s="260"/>
+      <c r="A102" s="239"/>
       <c r="B102" t="s">
         <v>3</v>
       </c>
@@ -2487,41 +2579,41 @@
         <v>75</v>
       </c>
       <c r="D102" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="E102" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="F102" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G102" t="s">
-        <v>121</v>
+        <v>100</v>
       </c>
     </row>
     <row r="103">
-      <c r="A103" s="259"/>
+      <c r="A103" s="238"/>
       <c r="B103" t="s">
         <v>3</v>
       </c>
       <c r="C103" t="s">
-        <v>9</v>
+        <v>75</v>
       </c>
       <c r="D103" t="s">
-        <v>46</v>
+        <v>101</v>
       </c>
       <c r="E103" t="s">
-        <v>47</v>
+        <v>91</v>
       </c>
       <c r="F103" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="G103" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
     </row>
     <row r="104">
-      <c r="A104" s="258"/>
+      <c r="A104" s="237"/>
       <c r="B104" t="s">
         <v>3</v>
       </c>
@@ -2529,195 +2621,233 @@
         <v>75</v>
       </c>
       <c r="D104" t="s">
+        <v>103</v>
+      </c>
+      <c r="E104" t="s">
+        <v>96</v>
+      </c>
+      <c r="F104" t="s">
+        <v>48</v>
+      </c>
+      <c r="G104" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="236"/>
+      <c r="B105" t="s">
+        <v>11</v>
+      </c>
+      <c r="E105" t="s">
+        <v>105</v>
+      </c>
+      <c r="F105" t="s">
+        <v>13</v>
+      </c>
+      <c r="G105" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="235"/>
+      <c r="B106" t="s">
+        <v>11</v>
+      </c>
+      <c r="E106" t="s">
+        <v>107</v>
+      </c>
+      <c r="F106" t="s">
+        <v>21</v>
+      </c>
+      <c r="G106" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="234"/>
+      <c r="B107" t="s">
+        <v>3</v>
+      </c>
+      <c r="C107" t="s">
+        <v>75</v>
+      </c>
+      <c r="D107" t="s">
+        <v>93</v>
+      </c>
+      <c r="E107" t="s">
+        <v>91</v>
+      </c>
+      <c r="F107" t="s">
+        <v>13</v>
+      </c>
+      <c r="G107" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="25"/>
+      <c r="B108" s="26"/>
+      <c r="C108" s="27"/>
+      <c r="D108" s="28"/>
+      <c r="E108" s="29"/>
+      <c r="F108" s="30"/>
+      <c r="G108" s="31"/>
+      <c r="H108" s="32"/>
+    </row>
+    <row r="109">
+      <c r="A109" s="263" t="s">
+        <v>41</v>
+      </c>
+      <c r="B109" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="262"/>
+      <c r="B110" t="s">
+        <v>3</v>
+      </c>
+      <c r="C110" t="s">
+        <v>65</v>
+      </c>
+      <c r="D110" t="s">
+        <v>66</v>
+      </c>
+      <c r="E110" t="s">
+        <v>67</v>
+      </c>
+      <c r="F110" t="s">
+        <v>13</v>
+      </c>
+      <c r="G110" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="261"/>
+      <c r="B111" t="s">
+        <v>3</v>
+      </c>
+      <c r="C111" t="s">
+        <v>9</v>
+      </c>
+      <c r="D111" t="s">
+        <v>46</v>
+      </c>
+      <c r="E111" t="s">
+        <v>47</v>
+      </c>
+      <c r="F111" t="s">
+        <v>48</v>
+      </c>
+      <c r="G111" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="260"/>
+      <c r="B112" t="s">
+        <v>3</v>
+      </c>
+      <c r="C112" t="s">
+        <v>75</v>
+      </c>
+      <c r="D112" t="s">
+        <v>83</v>
+      </c>
+      <c r="E112" t="s">
+        <v>84</v>
+      </c>
+      <c r="F112" t="s">
+        <v>21</v>
+      </c>
+      <c r="G112" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="259"/>
+      <c r="B113" t="s">
+        <v>3</v>
+      </c>
+      <c r="C113" t="s">
+        <v>9</v>
+      </c>
+      <c r="D113" t="s">
+        <v>46</v>
+      </c>
+      <c r="E113" t="s">
+        <v>47</v>
+      </c>
+      <c r="F113" t="s">
+        <v>48</v>
+      </c>
+      <c r="G113" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="258"/>
+      <c r="B114" t="s">
+        <v>3</v>
+      </c>
+      <c r="C114" t="s">
+        <v>75</v>
+      </c>
+      <c r="D114" t="s">
         <v>137</v>
       </c>
-      <c r="E104" t="s">
+      <c r="E114" t="s">
         <v>138</v>
       </c>
-      <c r="F104" t="s">
-        <v>13</v>
-      </c>
-      <c r="G104" t="s">
+      <c r="F114" t="s">
+        <v>13</v>
+      </c>
+      <c r="G114" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="105">
-      <c r="A105" s="291"/>
-    </row>
-    <row r="106">
-      <c r="A106" s="257"/>
-      <c r="B106" t="s">
-        <v>3</v>
-      </c>
-      <c r="C106" t="s">
+    <row r="115">
+      <c r="A115" s="291"/>
+    </row>
+    <row r="116">
+      <c r="A116" s="257"/>
+      <c r="B116" t="s">
+        <v>3</v>
+      </c>
+      <c r="C116" t="s">
         <v>65</v>
       </c>
-      <c r="D106" t="s">
+      <c r="D116" t="s">
         <v>66</v>
       </c>
-      <c r="E106" t="s">
+      <c r="E116" t="s">
         <v>67</v>
       </c>
-      <c r="F106" t="s">
-        <v>13</v>
-      </c>
-      <c r="G106" t="s">
+      <c r="F116" t="s">
+        <v>13</v>
+      </c>
+      <c r="G116" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="107">
-      <c r="A107" s="256"/>
-      <c r="B107" t="s">
+    <row r="117">
+      <c r="A117" s="256"/>
+      <c r="B117" t="s">
         <v>11</v>
       </c>
-      <c r="E107" t="s">
+      <c r="E117" t="s">
         <v>67</v>
-      </c>
-      <c r="F107" t="s">
-        <v>45</v>
-      </c>
-      <c r="G107" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" s="255"/>
-      <c r="B108" t="s">
-        <v>3</v>
-      </c>
-      <c r="C108" t="s">
-        <v>65</v>
-      </c>
-      <c r="D108" t="s">
-        <v>66</v>
-      </c>
-      <c r="E108" t="s">
-        <v>67</v>
-      </c>
-      <c r="F108" t="s">
-        <v>13</v>
-      </c>
-      <c r="G108" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" s="254"/>
-      <c r="B109" t="s">
-        <v>11</v>
-      </c>
-      <c r="E109" t="s">
-        <v>67</v>
-      </c>
-      <c r="F109" t="s">
-        <v>45</v>
-      </c>
-      <c r="G109" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" s="33"/>
-      <c r="B110" s="34"/>
-      <c r="C110" s="35"/>
-      <c r="D110" s="36"/>
-      <c r="E110" s="37"/>
-      <c r="F110" s="38"/>
-      <c r="G110" s="39"/>
-      <c r="H110" s="40"/>
-    </row>
-    <row r="111">
-      <c r="A111" s="290" t="s">
-        <v>51</v>
-      </c>
-      <c r="B111" t="s">
-        <v>8</v>
-      </c>
-      <c r="C111" t="s">
-        <v>123</v>
-      </c>
-      <c r="E111" t="s">
-        <v>124</v>
-      </c>
-      <c r="F111" t="s">
-        <v>45</v>
-      </c>
-      <c r="G111" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" s="289"/>
-      <c r="B112" t="s">
-        <v>11</v>
-      </c>
-      <c r="E112" t="s">
-        <v>125</v>
-      </c>
-      <c r="F112" t="s">
-        <v>45</v>
-      </c>
-      <c r="G112" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" s="288"/>
-    </row>
-    <row r="114">
-      <c r="A114" s="287" t="s">
-        <v>41</v>
-      </c>
-      <c r="B114" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" s="286" t="s">
-        <v>41</v>
-      </c>
-      <c r="B115" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" s="285"/>
-      <c r="B116" t="s">
-        <v>3</v>
-      </c>
-      <c r="C116" t="s">
-        <v>36</v>
-      </c>
-      <c r="D116" t="s">
-        <v>127</v>
-      </c>
-      <c r="E116" t="s">
-        <v>128</v>
-      </c>
-      <c r="F116" t="s">
-        <v>45</v>
-      </c>
-      <c r="G116" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" s="284"/>
-      <c r="B117" t="s">
-        <v>8</v>
-      </c>
-      <c r="E117" t="s">
-        <v>129</v>
       </c>
       <c r="F117" t="s">
         <v>45</v>
       </c>
       <c r="G117" t="s">
-        <v>61</v>
+        <v>17</v>
       </c>
     </row>
     <row r="118">
-      <c r="A118" s="283"/>
+      <c r="A118" s="255"/>
       <c r="B118" t="s">
         <v>3</v>
       </c>
@@ -2734,11 +2864,11 @@
         <v>13</v>
       </c>
       <c r="G118" t="s">
-        <v>130</v>
+        <v>18</v>
       </c>
     </row>
     <row r="119">
-      <c r="A119" s="282"/>
+      <c r="A119" s="254"/>
       <c r="B119" t="s">
         <v>11</v>
       </c>
@@ -2749,321 +2879,478 @@
         <v>45</v>
       </c>
       <c r="G119" t="s">
-        <v>129</v>
+        <v>18</v>
       </c>
     </row>
     <row r="120">
-      <c r="A120" s="281"/>
+      <c r="A120" s="308"/>
+      <c r="B120" t="s">
+        <v>3</v>
+      </c>
+      <c r="C120" t="s">
+        <v>65</v>
+      </c>
+      <c r="D120" t="s">
+        <v>66</v>
+      </c>
+      <c r="E120" t="s">
+        <v>67</v>
+      </c>
+      <c r="F120" t="s">
+        <v>13</v>
+      </c>
+      <c r="G120" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="121">
-      <c r="A121" s="280" t="s">
-        <v>41</v>
-      </c>
-      <c r="B121" t="s">
-        <v>131</v>
-      </c>
+      <c r="A121" s="33"/>
+      <c r="B121" s="34"/>
+      <c r="C121" s="35"/>
+      <c r="D121" s="36"/>
+      <c r="E121" s="37"/>
+      <c r="F121" s="38"/>
+      <c r="G121" s="39"/>
+      <c r="H121" s="40"/>
     </row>
     <row r="122">
-      <c r="A122" s="279"/>
+      <c r="A122" s="290" t="s">
+        <v>51</v>
+      </c>
       <c r="B122" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C122" t="s">
-        <v>21</v>
-      </c>
-      <c r="D122" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="E122" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="F122" t="s">
         <v>45</v>
       </c>
       <c r="G122" t="s">
-        <v>123</v>
+        <v>17</v>
       </c>
     </row>
     <row r="123">
-      <c r="A123" s="278"/>
+      <c r="A123" s="289"/>
       <c r="B123" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E123" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="F123" t="s">
         <v>45</v>
       </c>
       <c r="G123" t="s">
-        <v>61</v>
+        <v>18</v>
       </c>
     </row>
     <row r="124">
-      <c r="A124" s="277"/>
-      <c r="B124" t="s">
-        <v>3</v>
-      </c>
-      <c r="C124" t="s">
-        <v>65</v>
-      </c>
-      <c r="D124" t="s">
-        <v>66</v>
-      </c>
-      <c r="E124" t="s">
-        <v>67</v>
-      </c>
-      <c r="F124" t="s">
-        <v>13</v>
-      </c>
-      <c r="G124" t="s">
-        <v>133</v>
-      </c>
+      <c r="A124" s="288"/>
     </row>
     <row r="125">
-      <c r="A125" s="276"/>
+      <c r="A125" s="287" t="s">
+        <v>41</v>
+      </c>
       <c r="B125" t="s">
-        <v>11</v>
-      </c>
-      <c r="E125" t="s">
-        <v>67</v>
-      </c>
-      <c r="F125" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="286" t="s">
+        <v>41</v>
+      </c>
+      <c r="B126" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="285"/>
+      <c r="B127" t="s">
+        <v>3</v>
+      </c>
+      <c r="C127" t="s">
+        <v>36</v>
+      </c>
+      <c r="D127" t="s">
+        <v>127</v>
+      </c>
+      <c r="E127" t="s">
+        <v>128</v>
+      </c>
+      <c r="F127" t="s">
         <v>45</v>
       </c>
-      <c r="G125" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="275"/>
-    </row>
-    <row r="127">
-      <c r="A127" s="274"/>
+      <c r="G127" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="128">
-      <c r="A128" s="273"/>
+      <c r="A128" s="284"/>
       <c r="B128" t="s">
-        <v>3</v>
-      </c>
-      <c r="C128" t="s">
-        <v>75</v>
-      </c>
-      <c r="D128" t="s">
-        <v>134</v>
+        <v>8</v>
       </c>
       <c r="E128" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="F128" t="s">
         <v>45</v>
       </c>
       <c r="G128" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="283"/>
+      <c r="B129" t="s">
+        <v>3</v>
+      </c>
+      <c r="C129" t="s">
+        <v>65</v>
+      </c>
+      <c r="D129" t="s">
+        <v>66</v>
+      </c>
+      <c r="E129" t="s">
+        <v>67</v>
+      </c>
+      <c r="F129" t="s">
+        <v>13</v>
+      </c>
+      <c r="G129" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="282"/>
+      <c r="B130" t="s">
+        <v>11</v>
+      </c>
+      <c r="E130" t="s">
+        <v>67</v>
+      </c>
+      <c r="F130" t="s">
+        <v>45</v>
+      </c>
+      <c r="G130" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="281"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="280" t="s">
+        <v>41</v>
+      </c>
+      <c r="B132" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="279"/>
+      <c r="B133" t="s">
+        <v>3</v>
+      </c>
+      <c r="C133" t="s">
+        <v>21</v>
+      </c>
+      <c r="D133" t="s">
+        <v>127</v>
+      </c>
+      <c r="E133" t="s">
+        <v>128</v>
+      </c>
+      <c r="F133" t="s">
+        <v>45</v>
+      </c>
+      <c r="G133" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="278"/>
+      <c r="B134" t="s">
+        <v>8</v>
+      </c>
+      <c r="E134" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="272"/>
-      <c r="B129" t="s">
+      <c r="F134" t="s">
+        <v>45</v>
+      </c>
+      <c r="G134" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="277"/>
+      <c r="B135" t="s">
+        <v>3</v>
+      </c>
+      <c r="C135" t="s">
+        <v>65</v>
+      </c>
+      <c r="D135" t="s">
+        <v>66</v>
+      </c>
+      <c r="E135" t="s">
+        <v>67</v>
+      </c>
+      <c r="F135" t="s">
+        <v>13</v>
+      </c>
+      <c r="G135" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="276"/>
+      <c r="B136" t="s">
         <v>11</v>
       </c>
-      <c r="E129" t="s">
+      <c r="E136" t="s">
+        <v>67</v>
+      </c>
+      <c r="F136" t="s">
+        <v>45</v>
+      </c>
+      <c r="G136" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="275"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="274"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="273"/>
+      <c r="B139" t="s">
+        <v>3</v>
+      </c>
+      <c r="C139" t="s">
+        <v>75</v>
+      </c>
+      <c r="D139" t="s">
+        <v>134</v>
+      </c>
+      <c r="E139" t="s">
+        <v>135</v>
+      </c>
+      <c r="F139" t="s">
+        <v>45</v>
+      </c>
+      <c r="G139" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="272"/>
+      <c r="B140" t="s">
+        <v>11</v>
+      </c>
+      <c r="E140" t="s">
         <v>136</v>
       </c>
-      <c r="F129" t="s">
+      <c r="F140" t="s">
         <v>45</v>
       </c>
-      <c r="G129" t="s">
+      <c r="G140" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="130">
-      <c r="A130" s="271"/>
-    </row>
-    <row r="131">
-      <c r="A131" s="270" t="s">
+    <row r="141">
+      <c r="A141" s="271"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="270" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="132">
-      <c r="A132" s="269"/>
-    </row>
-    <row r="133">
-      <c r="A133" s="268"/>
-      <c r="B133" t="s">
-        <v>3</v>
-      </c>
-      <c r="C133" t="s">
+    <row r="143">
+      <c r="A143" s="269"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="268"/>
+      <c r="B144" t="s">
+        <v>3</v>
+      </c>
+      <c r="C144" t="s">
         <v>75</v>
       </c>
-      <c r="D133" t="s">
+      <c r="D144" t="s">
         <v>93</v>
       </c>
-      <c r="E133" t="s">
+      <c r="E144" t="s">
         <v>91</v>
       </c>
-      <c r="F133" t="s">
-        <v>13</v>
-      </c>
-      <c r="G133" t="s">
+      <c r="F144" t="s">
+        <v>13</v>
+      </c>
+      <c r="G144" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="134">
-      <c r="A134" s="267"/>
-    </row>
-    <row r="135">
-      <c r="A135" s="266"/>
-    </row>
-    <row r="136">
-      <c r="A136" s="41"/>
-      <c r="B136" s="42"/>
-      <c r="C136" s="43"/>
-      <c r="D136" s="44"/>
-      <c r="E136" s="45"/>
-      <c r="F136" s="46"/>
-      <c r="G136" s="47"/>
-      <c r="H136" s="48"/>
-    </row>
-    <row r="137">
-      <c r="A137" s="49"/>
-      <c r="B137" s="50"/>
-      <c r="C137" s="51"/>
-      <c r="D137" s="52"/>
-      <c r="E137" s="53"/>
-      <c r="F137" s="54"/>
-      <c r="G137" s="55"/>
-      <c r="H137" s="56"/>
-    </row>
-    <row r="138">
-      <c r="A138" s="57"/>
-      <c r="B138" s="58"/>
-      <c r="C138" s="59"/>
-      <c r="D138" s="60"/>
-      <c r="E138" s="61"/>
-      <c r="F138" s="62"/>
-      <c r="G138" s="63"/>
-      <c r="H138" s="64"/>
-    </row>
-    <row r="139">
-      <c r="A139" s="65"/>
-      <c r="B139" s="66"/>
-      <c r="C139" s="67"/>
-      <c r="D139" s="68"/>
-      <c r="E139" s="69"/>
-      <c r="F139" s="70"/>
-      <c r="G139" s="71"/>
-      <c r="H139" s="72"/>
-    </row>
-    <row r="140">
-      <c r="A140" s="73"/>
-      <c r="B140" s="74"/>
-      <c r="C140" s="75"/>
-      <c r="D140" s="76"/>
-      <c r="E140" s="77"/>
-      <c r="F140" s="78"/>
-      <c r="G140" s="79"/>
-      <c r="H140" s="80"/>
-    </row>
-    <row r="141">
-      <c r="A141" s="81"/>
-      <c r="B141" s="82"/>
-      <c r="C141" s="83"/>
-      <c r="D141" s="84"/>
-      <c r="E141" s="85"/>
-      <c r="F141" s="86"/>
-      <c r="G141" s="87"/>
-      <c r="H141" s="88"/>
-    </row>
-    <row r="142">
-      <c r="A142" s="89"/>
-      <c r="B142" s="90"/>
-      <c r="C142" s="91"/>
-      <c r="D142" s="92"/>
-      <c r="E142" s="93"/>
-      <c r="F142" s="94"/>
-      <c r="G142" s="95"/>
-      <c r="H142" s="96"/>
-    </row>
-    <row r="143">
-      <c r="A143" s="97"/>
-      <c r="B143" s="98"/>
-      <c r="C143" s="99"/>
-      <c r="D143" s="100"/>
-      <c r="E143" s="101"/>
-      <c r="F143" s="102"/>
-      <c r="G143" s="103"/>
-      <c r="H143" s="104"/>
-    </row>
-    <row r="144">
-      <c r="A144" s="105"/>
-      <c r="B144" s="106"/>
-      <c r="C144" s="107"/>
-      <c r="D144" s="108"/>
-      <c r="E144" s="109"/>
-      <c r="F144" s="110"/>
-      <c r="G144" s="111"/>
-      <c r="H144" s="112"/>
-    </row>
     <row r="145">
-      <c r="A145" s="113"/>
-      <c r="B145" s="114"/>
-      <c r="C145" s="115"/>
-      <c r="D145" s="116"/>
-      <c r="E145" s="117"/>
-      <c r="F145" s="118"/>
-      <c r="G145" s="119"/>
-      <c r="H145" s="120"/>
+      <c r="A145" s="267"/>
     </row>
     <row r="146">
-      <c r="A146" s="121"/>
-      <c r="B146" s="122"/>
-      <c r="C146" s="123"/>
-      <c r="D146" s="124"/>
-      <c r="E146" s="125"/>
-      <c r="F146" s="126"/>
-      <c r="G146" s="127"/>
-      <c r="H146" s="128"/>
+      <c r="A146" s="266"/>
     </row>
     <row r="147">
-      <c r="A147" s="129"/>
-      <c r="B147" s="130"/>
-      <c r="C147" s="131"/>
-      <c r="D147" s="132"/>
-      <c r="E147" s="133"/>
-      <c r="F147" s="134"/>
-      <c r="G147" s="135"/>
-      <c r="H147" s="136"/>
+      <c r="A147" s="41"/>
+      <c r="B147" s="42"/>
+      <c r="C147" s="43"/>
+      <c r="D147" s="44"/>
+      <c r="E147" s="45"/>
+      <c r="F147" s="46"/>
+      <c r="G147" s="47"/>
+      <c r="H147" s="48"/>
     </row>
     <row r="148">
-      <c r="A148" s="137"/>
-      <c r="B148" s="138"/>
-      <c r="C148" s="139"/>
-      <c r="D148" s="140"/>
-      <c r="E148" s="141"/>
-      <c r="F148" s="142"/>
-      <c r="G148" s="143"/>
-      <c r="H148" s="144"/>
+      <c r="A148" s="49"/>
+      <c r="B148" s="50"/>
+      <c r="C148" s="51"/>
+      <c r="D148" s="52"/>
+      <c r="E148" s="53"/>
+      <c r="F148" s="54"/>
+      <c r="G148" s="55"/>
+      <c r="H148" s="56"/>
     </row>
     <row r="149">
-      <c r="A149" s="145"/>
-      <c r="B149" s="146"/>
-      <c r="C149" s="147"/>
-      <c r="D149" s="148"/>
-      <c r="E149" s="149"/>
-      <c r="F149" s="150"/>
-      <c r="G149" s="151"/>
-      <c r="H149" s="152"/>
+      <c r="A149" s="57"/>
+      <c r="B149" s="58"/>
+      <c r="C149" s="59"/>
+      <c r="D149" s="60"/>
+      <c r="E149" s="61"/>
+      <c r="F149" s="62"/>
+      <c r="G149" s="63"/>
+      <c r="H149" s="64"/>
     </row>
     <row r="150">
-      <c r="A150" s="153"/>
-      <c r="B150" s="154"/>
-      <c r="C150" s="155"/>
-      <c r="D150" s="156"/>
-      <c r="E150" s="157"/>
-      <c r="F150" s="158"/>
-      <c r="G150" s="159"/>
-      <c r="H150" s="160"/>
+      <c r="A150" s="65"/>
+      <c r="B150" s="66"/>
+      <c r="C150" s="67"/>
+      <c r="D150" s="68"/>
+      <c r="E150" s="69"/>
+      <c r="F150" s="70"/>
+      <c r="G150" s="71"/>
+      <c r="H150" s="72"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="73"/>
+      <c r="B151" s="74"/>
+      <c r="C151" s="75"/>
+      <c r="D151" s="76"/>
+      <c r="E151" s="77"/>
+      <c r="F151" s="78"/>
+      <c r="G151" s="79"/>
+      <c r="H151" s="80"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="81"/>
+      <c r="B152" s="82"/>
+      <c r="C152" s="83"/>
+      <c r="D152" s="84"/>
+      <c r="E152" s="85"/>
+      <c r="F152" s="86"/>
+      <c r="G152" s="87"/>
+      <c r="H152" s="88"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="89"/>
+      <c r="B153" s="90"/>
+      <c r="C153" s="91"/>
+      <c r="D153" s="92"/>
+      <c r="E153" s="93"/>
+      <c r="F153" s="94"/>
+      <c r="G153" s="95"/>
+      <c r="H153" s="96"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="97"/>
+      <c r="B154" s="98"/>
+      <c r="C154" s="99"/>
+      <c r="D154" s="100"/>
+      <c r="E154" s="101"/>
+      <c r="F154" s="102"/>
+      <c r="G154" s="103"/>
+      <c r="H154" s="104"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="105"/>
+      <c r="B155" s="106"/>
+      <c r="C155" s="107"/>
+      <c r="D155" s="108"/>
+      <c r="E155" s="109"/>
+      <c r="F155" s="110"/>
+      <c r="G155" s="111"/>
+      <c r="H155" s="112"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="113"/>
+      <c r="B156" s="114"/>
+      <c r="C156" s="115"/>
+      <c r="D156" s="116"/>
+      <c r="E156" s="117"/>
+      <c r="F156" s="118"/>
+      <c r="G156" s="119"/>
+      <c r="H156" s="120"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="121"/>
+      <c r="B157" s="122"/>
+      <c r="C157" s="123"/>
+      <c r="D157" s="124"/>
+      <c r="E157" s="125"/>
+      <c r="F157" s="126"/>
+      <c r="G157" s="127"/>
+      <c r="H157" s="128"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="129"/>
+      <c r="B158" s="130"/>
+      <c r="C158" s="131"/>
+      <c r="D158" s="132"/>
+      <c r="E158" s="133"/>
+      <c r="F158" s="134"/>
+      <c r="G158" s="135"/>
+      <c r="H158" s="136"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="137"/>
+      <c r="B159" s="138"/>
+      <c r="C159" s="139"/>
+      <c r="D159" s="140"/>
+      <c r="E159" s="141"/>
+      <c r="F159" s="142"/>
+      <c r="G159" s="143"/>
+      <c r="H159" s="144"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="145"/>
+      <c r="B160" s="146"/>
+      <c r="C160" s="147"/>
+      <c r="D160" s="148"/>
+      <c r="E160" s="149"/>
+      <c r="F160" s="150"/>
+      <c r="G160" s="151"/>
+      <c r="H160" s="152"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="153"/>
+      <c r="B161" s="154"/>
+      <c r="C161" s="155"/>
+      <c r="D161" s="156"/>
+      <c r="E161" s="157"/>
+      <c r="F161" s="158"/>
+      <c r="G161" s="159"/>
+      <c r="H161" s="160"/>
     </row>
   </sheetData>
 </worksheet>
